--- a/hasil_rgb_glcm/rgb_analysis.xlsx
+++ b/hasil_rgb_glcm/rgb_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,72 +436,54 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Channel</t>
+          <t>File Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mean Intensity</t>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Unnamed Image</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>158.5430815972222</v>
+      </c>
+      <c r="C2" t="n">
+        <v>114.7725342399691</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.4728660300926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Unnamed Image</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.7725342399691</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>118.4728660300926</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
         <v>129.0614394869156</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C3" t="n">
         <v>129.0419969119918</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D3" t="n">
         <v>116.1485173601489</v>
       </c>
     </row>
